--- a/Calculo_Gon.xlsx
+++ b/Calculo_Gon.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTLVTE PC#6\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Mi_destino_Gonzalez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91DE569-FDB2-4A80-ADD3-9D30819DDE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30106D40-7DF8-4F34-8471-CF3E4AD64CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{0C3868F9-B12E-4C66-861A-F5BC6F295CDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0C3868F9-B12E-4C66-861A-F5BC6F295CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>calculo de nota</t>
   </si>
@@ -41,12 +50,15 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>ANDY GONZALEZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,8 +66,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Matura MT Script Capitals"/>
+      <family val="4"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,13 +83,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,20 +127,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -132,6 +163,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Fondos de escritorio 4k">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B521EB6-709A-470F-B934-47AB56A05F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="190500"/>
+          <a:ext cx="5229225" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,20 +528,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11E205A-F315-468F-8468-57162464F49E}">
-  <dimension ref="A3:F9"/>
+  <dimension ref="A3:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -462,10 +559,10 @@
         <f>(E6*F5)/E5</f>
         <v>4.4800000000000004</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>100</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>7</v>
       </c>
     </row>
@@ -480,10 +577,10 @@
         <f>(E9*F8)/E8</f>
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>64</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -500,33 +597,51 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <f>ROUND(B7,0)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="E8" s="4">
+      <c r="C8" s="6"/>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A11:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>